--- a/data/pca/factorExposure/factorExposure_2016-01-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-01-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01950146699625085</v>
+        <v>0.0186479842472957</v>
       </c>
       <c r="C2">
-        <v>0.040307413109852</v>
+        <v>0.03913342465297261</v>
       </c>
       <c r="D2">
-        <v>-0.09630573462179813</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1188883947251677</v>
+      </c>
+      <c r="E2">
+        <v>-0.08132431147566756</v>
+      </c>
+      <c r="F2">
+        <v>0.006799637496860268</v>
+      </c>
+      <c r="G2">
+        <v>0.04418494060722415</v>
+      </c>
+      <c r="H2">
+        <v>-0.0989596886704648</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01648380856535843</v>
+        <v>0.009453929046518365</v>
       </c>
       <c r="C3">
-        <v>0.06148210823119143</v>
+        <v>0.03583085676896101</v>
       </c>
       <c r="D3">
-        <v>-0.1471062933629781</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07953383336943548</v>
+      </c>
+      <c r="E3">
+        <v>-0.08914229669653854</v>
+      </c>
+      <c r="F3">
+        <v>0.03989014999631042</v>
+      </c>
+      <c r="G3">
+        <v>0.08869932527927146</v>
+      </c>
+      <c r="H3">
+        <v>-0.03515494503603431</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05160778391109721</v>
+        <v>0.05598529045640915</v>
       </c>
       <c r="C4">
-        <v>0.04005660974514803</v>
+        <v>0.06543720356060825</v>
       </c>
       <c r="D4">
-        <v>-0.1259831950795148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1354445690391275</v>
+      </c>
+      <c r="E4">
+        <v>-0.05880543277621776</v>
+      </c>
+      <c r="F4">
+        <v>0.02052609150225101</v>
+      </c>
+      <c r="G4">
+        <v>-0.02294522609759422</v>
+      </c>
+      <c r="H4">
+        <v>0.03238575094379165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.0462155377820984</v>
+        <v>0.04205998784296088</v>
       </c>
       <c r="C6">
-        <v>0.01237028747476531</v>
+        <v>0.02594328947490126</v>
       </c>
       <c r="D6">
-        <v>-0.1230504396717374</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1254029059290706</v>
+      </c>
+      <c r="E6">
+        <v>-0.04186515011855246</v>
+      </c>
+      <c r="F6">
+        <v>0.0135185935611914</v>
+      </c>
+      <c r="G6">
+        <v>0.01170123371946129</v>
+      </c>
+      <c r="H6">
+        <v>-0.009219285405605048</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02227783466653874</v>
+        <v>0.01650271918301122</v>
       </c>
       <c r="C7">
-        <v>0.0139056660582442</v>
+        <v>0.03079252898565996</v>
       </c>
       <c r="D7">
-        <v>-0.08439110921610285</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09188103297036729</v>
+      </c>
+      <c r="E7">
+        <v>-0.04406325710128569</v>
+      </c>
+      <c r="F7">
+        <v>0.01364519475521051</v>
+      </c>
+      <c r="G7">
+        <v>-0.03565515176938795</v>
+      </c>
+      <c r="H7">
+        <v>-0.1008823793448683</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.009296391098774684</v>
+        <v>0.008508445554806083</v>
       </c>
       <c r="C8">
-        <v>0.02852601730245569</v>
+        <v>0.03560164748565533</v>
       </c>
       <c r="D8">
-        <v>-0.06202269015301999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.07216685529152671</v>
+      </c>
+      <c r="E8">
+        <v>-0.04062565819465975</v>
+      </c>
+      <c r="F8">
+        <v>0.03551378584814604</v>
+      </c>
+      <c r="G8">
+        <v>-0.0008040288663797358</v>
+      </c>
+      <c r="H8">
+        <v>-0.03299632812579436</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04045670102374745</v>
+        <v>0.04229305206107722</v>
       </c>
       <c r="C9">
-        <v>0.03484405820274539</v>
+        <v>0.05699763919001073</v>
       </c>
       <c r="D9">
-        <v>-0.105267072160623</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1149913445127936</v>
+      </c>
+      <c r="E9">
+        <v>-0.04627048275065593</v>
+      </c>
+      <c r="F9">
+        <v>0.001888582135365895</v>
+      </c>
+      <c r="G9">
+        <v>-0.02099825520781464</v>
+      </c>
+      <c r="H9">
+        <v>-0.005286767806287404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.09057446934937918</v>
+        <v>0.1272027085599233</v>
       </c>
       <c r="C10">
-        <v>-0.2002132022938598</v>
+        <v>-0.195547332125745</v>
       </c>
       <c r="D10">
-        <v>-0.002943198793873529</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.001031822769034747</v>
+      </c>
+      <c r="E10">
+        <v>-0.05464286891273351</v>
+      </c>
+      <c r="F10">
+        <v>0.01296599587302588</v>
+      </c>
+      <c r="G10">
+        <v>-0.03610662936437218</v>
+      </c>
+      <c r="H10">
+        <v>0.01442231407420412</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03487075577692236</v>
+        <v>0.02950051222863708</v>
       </c>
       <c r="C11">
-        <v>0.03732250572238627</v>
+        <v>0.04274132884155789</v>
       </c>
       <c r="D11">
-        <v>-0.05790810712286489</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05889237718109491</v>
+      </c>
+      <c r="E11">
+        <v>-0.006646252297707415</v>
+      </c>
+      <c r="F11">
+        <v>0.00659936908704607</v>
+      </c>
+      <c r="G11">
+        <v>-0.01018412474043986</v>
+      </c>
+      <c r="H11">
+        <v>-0.05187080189184047</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03937010964130688</v>
+        <v>0.03378419399196136</v>
       </c>
       <c r="C12">
-        <v>0.03425293596797042</v>
+        <v>0.04249187611717832</v>
       </c>
       <c r="D12">
-        <v>-0.05582880166926427</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05602697735454024</v>
+      </c>
+      <c r="E12">
+        <v>-0.01902131158280439</v>
+      </c>
+      <c r="F12">
+        <v>0.001006895844055736</v>
+      </c>
+      <c r="G12">
+        <v>-0.01265625444515058</v>
+      </c>
+      <c r="H12">
+        <v>-0.06050474825643571</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01537126238334486</v>
+        <v>0.02025044693029922</v>
       </c>
       <c r="C13">
-        <v>0.02746803819060354</v>
+        <v>0.03873712961717606</v>
       </c>
       <c r="D13">
-        <v>-0.1254526249283612</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1401552219138962</v>
+      </c>
+      <c r="E13">
+        <v>-0.07877709225444247</v>
+      </c>
+      <c r="F13">
+        <v>0.02407973843255816</v>
+      </c>
+      <c r="G13">
+        <v>-0.01426365548632175</v>
+      </c>
+      <c r="H13">
+        <v>-0.0904296428211043</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01048329201625502</v>
+        <v>0.007079506655127825</v>
       </c>
       <c r="C14">
-        <v>0.01106627088887797</v>
+        <v>0.02219265943297262</v>
       </c>
       <c r="D14">
-        <v>-0.0780117100536518</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.08278051941805575</v>
+      </c>
+      <c r="E14">
+        <v>-0.04595036852349558</v>
+      </c>
+      <c r="F14">
+        <v>-0.01390417743828397</v>
+      </c>
+      <c r="G14">
+        <v>-0.01429527190167139</v>
+      </c>
+      <c r="H14">
+        <v>-0.09874098194266681</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.001669636797996174</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.008019619920437477</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.02654481964752355</v>
+      </c>
+      <c r="E15">
+        <v>-0.006787294385959159</v>
+      </c>
+      <c r="F15">
+        <v>-0.003135347833461668</v>
+      </c>
+      <c r="G15">
+        <v>0.004462241049465882</v>
+      </c>
+      <c r="H15">
+        <v>-0.01386741729411552</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03636800543967002</v>
+        <v>0.03057015275749828</v>
       </c>
       <c r="C16">
-        <v>0.04080541631894027</v>
+        <v>0.04384758614577292</v>
       </c>
       <c r="D16">
-        <v>-0.06411112723642161</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06078297049133399</v>
+      </c>
+      <c r="E16">
+        <v>-0.02062793453780426</v>
+      </c>
+      <c r="F16">
+        <v>-0.007288574992662538</v>
+      </c>
+      <c r="G16">
+        <v>-0.007553039419285838</v>
+      </c>
+      <c r="H16">
+        <v>-0.05886711551328981</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01214890983712396</v>
+        <v>0.01183728145592057</v>
       </c>
       <c r="C19">
-        <v>0.02561653853193944</v>
+        <v>0.02538135953280289</v>
       </c>
       <c r="D19">
-        <v>-0.175352443413607</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1313018264260662</v>
+      </c>
+      <c r="E19">
+        <v>-0.07146895248226118</v>
+      </c>
+      <c r="F19">
+        <v>-0.02925200480526862</v>
+      </c>
+      <c r="G19">
+        <v>0.007102930042940413</v>
+      </c>
+      <c r="H19">
+        <v>-0.05443576926821269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.02082538503363394</v>
+        <v>0.01647284978982227</v>
       </c>
       <c r="C20">
-        <v>0.02439481731577052</v>
+        <v>0.03491757530292739</v>
       </c>
       <c r="D20">
-        <v>-0.09086917881936361</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.09486038638030654</v>
+      </c>
+      <c r="E20">
+        <v>-0.06356115421738236</v>
+      </c>
+      <c r="F20">
+        <v>-0.005945297021215981</v>
+      </c>
+      <c r="G20">
+        <v>-0.006835846559577364</v>
+      </c>
+      <c r="H20">
+        <v>-0.05324936945564314</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01036689927653746</v>
+        <v>0.01456999719220492</v>
       </c>
       <c r="C21">
-        <v>0.01793968898309187</v>
+        <v>0.03440662097061456</v>
       </c>
       <c r="D21">
-        <v>-0.1244113937471496</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1322374697258041</v>
+      </c>
+      <c r="E21">
+        <v>-0.1001126708779587</v>
+      </c>
+      <c r="F21">
+        <v>-0.01304467825914011</v>
+      </c>
+      <c r="G21">
+        <v>-0.05725448503925237</v>
+      </c>
+      <c r="H21">
+        <v>-0.1022347277683334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.00223006263581854</v>
+        <v>0.005572548445188338</v>
       </c>
       <c r="C22">
-        <v>0.01474440674979207</v>
+        <v>0.03689715930383689</v>
       </c>
       <c r="D22">
-        <v>-0.05708569916515675</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.120360613656599</v>
+      </c>
+      <c r="E22">
+        <v>-0.03565729055114063</v>
+      </c>
+      <c r="F22">
+        <v>0.07361051303902846</v>
+      </c>
+      <c r="G22">
+        <v>0.05197295423765059</v>
+      </c>
+      <c r="H22">
+        <v>0.0157418365398929</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.002278947974420722</v>
+        <v>0.005670397440807878</v>
       </c>
       <c r="C23">
-        <v>0.01456106327024021</v>
+        <v>0.03731529242108346</v>
       </c>
       <c r="D23">
-        <v>-0.056739450069305</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.119801484375514</v>
+      </c>
+      <c r="E23">
+        <v>-0.03586382076618649</v>
+      </c>
+      <c r="F23">
+        <v>0.0735166881484994</v>
+      </c>
+      <c r="G23">
+        <v>0.05114739409970706</v>
+      </c>
+      <c r="H23">
+        <v>0.01611321820069806</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03606019657875795</v>
+        <v>0.03275454822426837</v>
       </c>
       <c r="C24">
-        <v>0.04385204908678244</v>
+        <v>0.05318522611675141</v>
       </c>
       <c r="D24">
-        <v>-0.06460429169253817</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06510419253250613</v>
+      </c>
+      <c r="E24">
+        <v>-0.02395555757129461</v>
+      </c>
+      <c r="F24">
+        <v>-0.00456162412694468</v>
+      </c>
+      <c r="G24">
+        <v>-0.01928691879503151</v>
+      </c>
+      <c r="H24">
+        <v>-0.0665459885605732</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.04276432803356292</v>
+        <v>0.03712340256361471</v>
       </c>
       <c r="C25">
-        <v>0.04420655833253746</v>
+        <v>0.05126798855448916</v>
       </c>
       <c r="D25">
-        <v>-0.06541865467472381</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06112418415417966</v>
+      </c>
+      <c r="E25">
+        <v>-0.0245679630597214</v>
+      </c>
+      <c r="F25">
+        <v>0.008234388948381929</v>
+      </c>
+      <c r="G25">
+        <v>-0.02350242379817715</v>
+      </c>
+      <c r="H25">
+        <v>-0.05448991209997214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02411669315113657</v>
+        <v>0.02162302173491405</v>
       </c>
       <c r="C26">
-        <v>0.005385754200606625</v>
+        <v>0.01677510230740416</v>
       </c>
       <c r="D26">
-        <v>-0.0532841139075667</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06359663176618029</v>
+      </c>
+      <c r="E26">
+        <v>-0.03140674754058155</v>
+      </c>
+      <c r="F26">
+        <v>-0.004133897104610914</v>
+      </c>
+      <c r="G26">
+        <v>-0.003533454518470753</v>
+      </c>
+      <c r="H26">
+        <v>-0.05657535322312482</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1262805827061704</v>
+        <v>0.1798242722514532</v>
       </c>
       <c r="C28">
-        <v>-0.2812852110449181</v>
+        <v>-0.2614076882939784</v>
       </c>
       <c r="D28">
-        <v>0.02996437203188299</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.0139941509550942</v>
+      </c>
+      <c r="E28">
+        <v>-0.07118280546646422</v>
+      </c>
+      <c r="F28">
+        <v>0.002554939873592598</v>
+      </c>
+      <c r="G28">
+        <v>-0.07551459396464989</v>
+      </c>
+      <c r="H28">
+        <v>0.007388049505180599</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.003414914337199015</v>
+        <v>0.005864081593819292</v>
       </c>
       <c r="C29">
-        <v>0.01108956121602764</v>
+        <v>0.02018899841084842</v>
       </c>
       <c r="D29">
-        <v>-0.05966498516999679</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.07643682713566526</v>
+      </c>
+      <c r="E29">
+        <v>-0.04902737001165298</v>
+      </c>
+      <c r="F29">
+        <v>-1.382970250474227e-06</v>
+      </c>
+      <c r="G29">
+        <v>-0.03014614691764877</v>
+      </c>
+      <c r="H29">
+        <v>-0.09614821982829232</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.04507695034395798</v>
+        <v>0.04529763752165955</v>
       </c>
       <c r="C30">
-        <v>0.03987702639498578</v>
+        <v>0.06086496990266792</v>
       </c>
       <c r="D30">
-        <v>-0.1558660916222013</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.173792526610147</v>
+      </c>
+      <c r="E30">
+        <v>-0.03472147198256257</v>
+      </c>
+      <c r="F30">
+        <v>0.001945968366908584</v>
+      </c>
+      <c r="G30">
+        <v>0.03589300625401678</v>
+      </c>
+      <c r="H30">
+        <v>-0.01626506069228976</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.0668035657950302</v>
+        <v>0.05910208109670692</v>
       </c>
       <c r="C31">
-        <v>0.04572427203177377</v>
+        <v>0.07043778574232488</v>
       </c>
       <c r="D31">
-        <v>-0.06182774128440472</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.05108234820459451</v>
+      </c>
+      <c r="E31">
+        <v>-0.04473485177610821</v>
+      </c>
+      <c r="F31">
+        <v>0.0411714959846937</v>
+      </c>
+      <c r="G31">
+        <v>-0.01219371801080468</v>
+      </c>
+      <c r="H31">
+        <v>-0.02458185506959098</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0003437722728700924</v>
+        <v>0.01010776700694136</v>
       </c>
       <c r="C32">
-        <v>-0.001294868351817591</v>
+        <v>0.01759426811866991</v>
       </c>
       <c r="D32">
-        <v>-0.06509529450262064</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.09133370536748706</v>
+      </c>
+      <c r="E32">
+        <v>-0.09248787167821268</v>
+      </c>
+      <c r="F32">
+        <v>-0.00309261354755277</v>
+      </c>
+      <c r="G32">
+        <v>-0.06431439063115182</v>
+      </c>
+      <c r="H32">
+        <v>-0.08346228746288333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02835007257827085</v>
+        <v>0.02547733928091937</v>
       </c>
       <c r="C33">
-        <v>0.02640638002342623</v>
+        <v>0.04322798859374766</v>
       </c>
       <c r="D33">
-        <v>-0.1359016769640665</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1326757029677087</v>
+      </c>
+      <c r="E33">
+        <v>-0.05848087689680854</v>
+      </c>
+      <c r="F33">
+        <v>0.01674770062361412</v>
+      </c>
+      <c r="G33">
+        <v>-0.0108060927219502</v>
+      </c>
+      <c r="H33">
+        <v>-0.06201080579156756</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03229121082344231</v>
+        <v>0.02967107064059431</v>
       </c>
       <c r="C34">
-        <v>0.0528801073781109</v>
+        <v>0.05958238129859166</v>
       </c>
       <c r="D34">
-        <v>-0.06043029467655799</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05885546914610421</v>
+      </c>
+      <c r="E34">
+        <v>-0.00596304581146881</v>
+      </c>
+      <c r="F34">
+        <v>-0.002992896515218991</v>
+      </c>
+      <c r="G34">
+        <v>-0.022533410906729</v>
+      </c>
+      <c r="H34">
+        <v>-0.07290839337794967</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0005372138757652616</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0002242985621840059</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.002917595700256991</v>
+      </c>
+      <c r="E35">
+        <v>-0.0006155173171531542</v>
+      </c>
+      <c r="F35">
+        <v>-4.13113291827293e-05</v>
+      </c>
+      <c r="G35">
+        <v>-0.0003239008512708822</v>
+      </c>
+      <c r="H35">
+        <v>-0.002780485758165124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02159400517619845</v>
+        <v>0.01864707654939017</v>
       </c>
       <c r="C36">
-        <v>0.001195431610735332</v>
+        <v>0.01465533438395929</v>
       </c>
       <c r="D36">
-        <v>-0.07200290776383943</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.07585290735150461</v>
+      </c>
+      <c r="E36">
+        <v>-0.04213162958404279</v>
+      </c>
+      <c r="F36">
+        <v>-0.003309049318758509</v>
+      </c>
+      <c r="G36">
+        <v>-0.01768197524232706</v>
+      </c>
+      <c r="H36">
+        <v>-0.04891624720412747</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.0303042923424187</v>
+        <v>0.02402382143469272</v>
       </c>
       <c r="C38">
-        <v>0.02890889723419339</v>
+        <v>0.02699662620492949</v>
       </c>
       <c r="D38">
-        <v>-0.06245418933975189</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0618198240848029</v>
+      </c>
+      <c r="E38">
+        <v>-0.04431633123999368</v>
+      </c>
+      <c r="F38">
+        <v>-0.003819857184348052</v>
+      </c>
+      <c r="G38">
+        <v>0.03413313056281638</v>
+      </c>
+      <c r="H38">
+        <v>-0.03755077583696281</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.04321438859181972</v>
+        <v>0.03876434703207398</v>
       </c>
       <c r="C39">
-        <v>0.05534965746799124</v>
+        <v>0.06400188007031919</v>
       </c>
       <c r="D39">
-        <v>-0.08462910477552958</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1021717049934038</v>
+      </c>
+      <c r="E39">
+        <v>-0.02338102436020838</v>
+      </c>
+      <c r="F39">
+        <v>-0.02180102575210034</v>
+      </c>
+      <c r="G39">
+        <v>-0.006458256281597245</v>
+      </c>
+      <c r="H39">
+        <v>-0.08551092211878487</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01883172337867654</v>
+        <v>0.01561065838652414</v>
       </c>
       <c r="C40">
-        <v>0.03877902015817274</v>
+        <v>0.0372076480149728</v>
       </c>
       <c r="D40">
-        <v>-0.07882275354860696</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.08333911335932577</v>
+      </c>
+      <c r="E40">
+        <v>-0.08444982207750333</v>
+      </c>
+      <c r="F40">
+        <v>0.05347048158021975</v>
+      </c>
+      <c r="G40">
+        <v>0.01136428738473883</v>
+      </c>
+      <c r="H40">
+        <v>-0.1573449963650789</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02601180037659128</v>
+        <v>0.02328088834391823</v>
       </c>
       <c r="C41">
-        <v>-0.005974096127371443</v>
+        <v>0.009194392992776886</v>
       </c>
       <c r="D41">
-        <v>-0.07540642613833393</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05800519116592232</v>
+      </c>
+      <c r="E41">
+        <v>-0.05728095707144901</v>
+      </c>
+      <c r="F41">
+        <v>-0.001389808127502435</v>
+      </c>
+      <c r="G41">
+        <v>0.0005493372580359727</v>
+      </c>
+      <c r="H41">
+        <v>-0.04236920598112395</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.03580914339094565</v>
+        <v>0.02601029473952618</v>
       </c>
       <c r="C43">
-        <v>0.004876328070282366</v>
+        <v>0.01886770819955957</v>
       </c>
       <c r="D43">
-        <v>-0.112681895020729</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.08789430452410371</v>
+      </c>
+      <c r="E43">
+        <v>-0.04525439653288746</v>
+      </c>
+      <c r="F43">
+        <v>0.005721826503685318</v>
+      </c>
+      <c r="G43">
+        <v>0.000180383523344303</v>
+      </c>
+      <c r="H43">
+        <v>-0.06093034323339359</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01401899699292149</v>
+        <v>0.01757914618506239</v>
       </c>
       <c r="C44">
-        <v>0.03931397876772737</v>
+        <v>0.0416033744597966</v>
       </c>
       <c r="D44">
-        <v>-0.08223693877360298</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.0951300334394919</v>
+      </c>
+      <c r="E44">
+        <v>-0.08031659724916601</v>
+      </c>
+      <c r="F44">
+        <v>-0.004401085989069861</v>
+      </c>
+      <c r="G44">
+        <v>-0.01998384060226159</v>
+      </c>
+      <c r="H44">
+        <v>-0.06693075590860816</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.0199997640376385</v>
+        <v>0.01653651529614536</v>
       </c>
       <c r="C46">
-        <v>0.01260928761647626</v>
+        <v>0.0276319894131902</v>
       </c>
       <c r="D46">
-        <v>-0.07226918617172892</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.08614486736156635</v>
+      </c>
+      <c r="E46">
+        <v>-0.05149696044136121</v>
+      </c>
+      <c r="F46">
+        <v>-0.02195257158910013</v>
+      </c>
+      <c r="G46">
+        <v>-0.03834384463016884</v>
+      </c>
+      <c r="H46">
+        <v>-0.09517720370496108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09408227412786886</v>
+        <v>0.08861840859026029</v>
       </c>
       <c r="C47">
-        <v>0.0675404205799713</v>
+        <v>0.08784291136573838</v>
       </c>
       <c r="D47">
-        <v>-0.03832114755197352</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.03006520085172536</v>
+      </c>
+      <c r="E47">
+        <v>-0.03949851011851777</v>
+      </c>
+      <c r="F47">
+        <v>0.02427246585121372</v>
+      </c>
+      <c r="G47">
+        <v>-0.0583658340219694</v>
+      </c>
+      <c r="H47">
+        <v>0.001180639286919072</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02200612486319078</v>
+        <v>0.01962377823166232</v>
       </c>
       <c r="C48">
-        <v>0.003154792319377578</v>
+        <v>0.01770926986505555</v>
       </c>
       <c r="D48">
-        <v>-0.07195980702199926</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.07695163410611713</v>
+      </c>
+      <c r="E48">
+        <v>-0.05647285211077609</v>
+      </c>
+      <c r="F48">
+        <v>-0.01595741962387343</v>
+      </c>
+      <c r="G48">
+        <v>-0.01550566993722347</v>
+      </c>
+      <c r="H48">
+        <v>-0.05117213324836591</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.07875415814410605</v>
+        <v>0.0635249004978829</v>
       </c>
       <c r="C50">
-        <v>0.05873291039332668</v>
+        <v>0.06820231770389955</v>
       </c>
       <c r="D50">
-        <v>-0.06376803296504797</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05523149512513532</v>
+      </c>
+      <c r="E50">
+        <v>-0.04947850828394148</v>
+      </c>
+      <c r="F50">
+        <v>0.04252064434249762</v>
+      </c>
+      <c r="G50">
+        <v>0.0003901488875287699</v>
+      </c>
+      <c r="H50">
+        <v>-0.03152845082024305</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.007971713742054668</v>
+        <v>0.007788570635403338</v>
       </c>
       <c r="C51">
-        <v>0.01034621544977196</v>
+        <v>0.01487835980851328</v>
       </c>
       <c r="D51">
-        <v>-0.08133185153037893</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.08810847076574696</v>
+      </c>
+      <c r="E51">
+        <v>-0.03280498185264016</v>
+      </c>
+      <c r="F51">
+        <v>-0.005020246082467973</v>
+      </c>
+      <c r="G51">
+        <v>0.002262922375024778</v>
+      </c>
+      <c r="H51">
+        <v>-0.07893814327077547</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.07870600970475791</v>
+        <v>0.08933020597321389</v>
       </c>
       <c r="C53">
-        <v>0.0800173444970268</v>
+        <v>0.09535974151829976</v>
       </c>
       <c r="D53">
-        <v>-0.01669005209805892</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.0009447088357760679</v>
+      </c>
+      <c r="E53">
+        <v>-0.0980950773605908</v>
+      </c>
+      <c r="F53">
+        <v>0.02729967226941809</v>
+      </c>
+      <c r="G53">
+        <v>-0.09421813211483747</v>
+      </c>
+      <c r="H53">
+        <v>0.03711866791638585</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.03374020438096485</v>
+        <v>0.02701537513017574</v>
       </c>
       <c r="C54">
-        <v>0.02040979292692609</v>
+        <v>0.03343342322729165</v>
       </c>
       <c r="D54">
-        <v>-0.08131941922397762</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.08636506482574081</v>
+      </c>
+      <c r="E54">
+        <v>-0.05135411902783251</v>
+      </c>
+      <c r="F54">
+        <v>-0.0200266919698735</v>
+      </c>
+      <c r="G54">
+        <v>-0.01135136688814194</v>
+      </c>
+      <c r="H54">
+        <v>-0.1098515158615849</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08710450461909046</v>
+        <v>0.08686672040944431</v>
       </c>
       <c r="C55">
-        <v>0.05723182329831754</v>
+        <v>0.07723349067801778</v>
       </c>
       <c r="D55">
-        <v>0.002192093037092085</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.01484008968744072</v>
+      </c>
+      <c r="E55">
+        <v>-0.05869296983595674</v>
+      </c>
+      <c r="F55">
+        <v>0.03049547122448489</v>
+      </c>
+      <c r="G55">
+        <v>-0.04296211935169408</v>
+      </c>
+      <c r="H55">
+        <v>0.03052933002590707</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1392400304491985</v>
+        <v>0.1368449532891396</v>
       </c>
       <c r="C56">
-        <v>0.09440418915552938</v>
+        <v>0.121138722762383</v>
       </c>
       <c r="D56">
-        <v>-0.007911433101983636</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01453355930094915</v>
+      </c>
+      <c r="E56">
+        <v>-0.05833303398356565</v>
+      </c>
+      <c r="F56">
+        <v>0.01827524837869052</v>
+      </c>
+      <c r="G56">
+        <v>-0.06071045538331952</v>
+      </c>
+      <c r="H56">
+        <v>0.03246742665040414</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.03872913308379097</v>
+        <v>0.03779101840941294</v>
       </c>
       <c r="C58">
-        <v>-0.02294265396119</v>
+        <v>0.01861490901486233</v>
       </c>
       <c r="D58">
-        <v>-0.4226261346796739</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3786845970840511</v>
+      </c>
+      <c r="E58">
+        <v>-0.2245185806989413</v>
+      </c>
+      <c r="F58">
+        <v>0.1139363694097043</v>
+      </c>
+      <c r="G58">
+        <v>0.4212249918353722</v>
+      </c>
+      <c r="H58">
+        <v>0.3628585737004628</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1326357989574846</v>
+        <v>0.1638808632464281</v>
       </c>
       <c r="C59">
-        <v>-0.2038223322945953</v>
+        <v>-0.1797473087880525</v>
       </c>
       <c r="D59">
-        <v>-0.0215589469665761</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.04521535480904247</v>
+      </c>
+      <c r="E59">
+        <v>-0.01717295217053929</v>
+      </c>
+      <c r="F59">
+        <v>-0.03594766479638829</v>
+      </c>
+      <c r="G59">
+        <v>-0.0024867911792805</v>
+      </c>
+      <c r="H59">
+        <v>0.01793835936088657</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2609704748444155</v>
+        <v>0.2373037105148013</v>
       </c>
       <c r="C60">
-        <v>0.06839391505370999</v>
+        <v>0.09347159256339771</v>
       </c>
       <c r="D60">
-        <v>-0.1321517382417</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1265167383506356</v>
+      </c>
+      <c r="E60">
+        <v>0.3523053133115561</v>
+      </c>
+      <c r="F60">
+        <v>0.08545366018281829</v>
+      </c>
+      <c r="G60">
+        <v>-0.01125148526092229</v>
+      </c>
+      <c r="H60">
+        <v>0.06110508267051436</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04821153721727701</v>
+        <v>0.04292715556974733</v>
       </c>
       <c r="C61">
-        <v>0.04867535775155486</v>
+        <v>0.05708381776169336</v>
       </c>
       <c r="D61">
-        <v>-0.09774386288818554</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09351108349824311</v>
+      </c>
+      <c r="E61">
+        <v>-0.02224062045290675</v>
+      </c>
+      <c r="F61">
+        <v>-0.01056628678612943</v>
+      </c>
+      <c r="G61">
+        <v>-0.02489805460257694</v>
+      </c>
+      <c r="H61">
+        <v>-0.07490499166460601</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01602156334779176</v>
+        <v>0.01643377068809083</v>
       </c>
       <c r="C63">
-        <v>0.01662038586543631</v>
+        <v>0.02896086177553225</v>
       </c>
       <c r="D63">
-        <v>-0.05471599576808234</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06923156553135583</v>
+      </c>
+      <c r="E63">
+        <v>-0.05301489819236468</v>
+      </c>
+      <c r="F63">
+        <v>0.02313849544148351</v>
+      </c>
+      <c r="G63">
+        <v>0.003510416106398573</v>
+      </c>
+      <c r="H63">
+        <v>-0.04256366618928443</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05730616352854122</v>
+        <v>0.0571901794377434</v>
       </c>
       <c r="C64">
-        <v>0.05859056843896658</v>
+        <v>0.07422588552983225</v>
       </c>
       <c r="D64">
-        <v>-0.0665398389491514</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05484644955880869</v>
+      </c>
+      <c r="E64">
+        <v>-0.04290411987967548</v>
+      </c>
+      <c r="F64">
+        <v>-0.02053962933540534</v>
+      </c>
+      <c r="G64">
+        <v>-0.04838953726738644</v>
+      </c>
+      <c r="H64">
+        <v>-0.03931964798094027</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.0617092537370269</v>
+        <v>0.05382121985693603</v>
       </c>
       <c r="C65">
-        <v>0.004034707193898567</v>
+        <v>0.02289724529352666</v>
       </c>
       <c r="D65">
-        <v>-0.1084160296946352</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.11480793885599</v>
+      </c>
+      <c r="E65">
+        <v>-0.01060528505928613</v>
+      </c>
+      <c r="F65">
+        <v>0.01989250823628524</v>
+      </c>
+      <c r="G65">
+        <v>0.03752786677619856</v>
+      </c>
+      <c r="H65">
+        <v>0.02591120046543855</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04781146158426994</v>
+        <v>0.04570884386223348</v>
       </c>
       <c r="C66">
-        <v>0.05710193598717796</v>
+        <v>0.07077988551003567</v>
       </c>
       <c r="D66">
-        <v>-0.1093978829244441</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1274221512545595</v>
+      </c>
+      <c r="E66">
+        <v>-0.02591607808527394</v>
+      </c>
+      <c r="F66">
+        <v>-0.01191870016588056</v>
+      </c>
+      <c r="G66">
+        <v>0.0004539968571788264</v>
+      </c>
+      <c r="H66">
+        <v>-0.06244027832457732</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.04893058171847406</v>
+        <v>0.04038273686981248</v>
       </c>
       <c r="C67">
-        <v>0.03633970182142371</v>
+        <v>0.03271956711580263</v>
       </c>
       <c r="D67">
-        <v>-0.0356630461559292</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02734869338949149</v>
+      </c>
+      <c r="E67">
+        <v>-0.02731973729313385</v>
+      </c>
+      <c r="F67">
+        <v>0.002903907466383886</v>
+      </c>
+      <c r="G67">
+        <v>0.03023721002660331</v>
+      </c>
+      <c r="H67">
+        <v>-0.03781309307492246</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1580566052431421</v>
+        <v>0.1846500606135907</v>
       </c>
       <c r="C68">
-        <v>-0.2832378819150622</v>
+        <v>-0.2243223201374542</v>
       </c>
       <c r="D68">
-        <v>0.02104792887973169</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01147982501213741</v>
+      </c>
+      <c r="E68">
+        <v>-0.05372122072275314</v>
+      </c>
+      <c r="F68">
+        <v>0.02254398395855877</v>
+      </c>
+      <c r="G68">
+        <v>0.0001732753175344046</v>
+      </c>
+      <c r="H68">
+        <v>0.004478750476441456</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08758829924963168</v>
+        <v>0.08083538966008358</v>
       </c>
       <c r="C69">
-        <v>0.07769830662657476</v>
+        <v>0.09665599886633998</v>
       </c>
       <c r="D69">
-        <v>-0.04977861444661537</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.04275868922380677</v>
+      </c>
+      <c r="E69">
+        <v>-0.03276489574777979</v>
+      </c>
+      <c r="F69">
+        <v>0.002312984814341246</v>
+      </c>
+      <c r="G69">
+        <v>-0.04448061673811451</v>
+      </c>
+      <c r="H69">
+        <v>-0.01775280623643024</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1313846275584059</v>
+        <v>0.169644551558175</v>
       </c>
       <c r="C71">
-        <v>-0.2611704139147717</v>
+        <v>-0.2289593320177112</v>
       </c>
       <c r="D71">
-        <v>-0.02464644680091338</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.03558709885687278</v>
+      </c>
+      <c r="E71">
+        <v>-0.05109654527415999</v>
+      </c>
+      <c r="F71">
+        <v>0.02175294905094828</v>
+      </c>
+      <c r="G71">
+        <v>-0.04422277783566849</v>
+      </c>
+      <c r="H71">
+        <v>-0.01062456247866117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09872271146825488</v>
+        <v>0.1023714166416329</v>
       </c>
       <c r="C72">
-        <v>0.04537513112935552</v>
+        <v>0.062294877811502</v>
       </c>
       <c r="D72">
-        <v>-0.0826451745318212</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.09012700079483027</v>
+      </c>
+      <c r="E72">
+        <v>0.01900694870768966</v>
+      </c>
+      <c r="F72">
+        <v>0.03209140823076841</v>
+      </c>
+      <c r="G72">
+        <v>-0.03170909900712918</v>
+      </c>
+      <c r="H72">
+        <v>-0.02951894265795341</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.3130482234661918</v>
+        <v>0.2709481299083791</v>
       </c>
       <c r="C73">
-        <v>0.02611137373899826</v>
+        <v>0.07662815326256087</v>
       </c>
       <c r="D73">
-        <v>-0.2147103381257381</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.2050433579989175</v>
+      </c>
+      <c r="E73">
+        <v>0.6681165724490848</v>
+      </c>
+      <c r="F73">
+        <v>0.09967420605246056</v>
+      </c>
+      <c r="G73">
+        <v>0.05313438030127917</v>
+      </c>
+      <c r="H73">
+        <v>0.1042272492354169</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1073839673426408</v>
+        <v>0.1054185484951301</v>
       </c>
       <c r="C74">
-        <v>0.06637989841634132</v>
+        <v>0.08878292580150401</v>
       </c>
       <c r="D74">
-        <v>-0.03239065242630101</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.003138721976311012</v>
+      </c>
+      <c r="E74">
+        <v>-0.08225929361019135</v>
+      </c>
+      <c r="F74">
+        <v>0.0438379811987597</v>
+      </c>
+      <c r="G74">
+        <v>-0.0503619367793092</v>
+      </c>
+      <c r="H74">
+        <v>0.06746703149221786</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2493816584416764</v>
+        <v>0.2422115665403924</v>
       </c>
       <c r="C75">
-        <v>0.1249688553641354</v>
+        <v>0.1564602923019175</v>
       </c>
       <c r="D75">
-        <v>0.06235350773807479</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.114274420005979</v>
+      </c>
+      <c r="E75">
+        <v>-0.07566052394147189</v>
+      </c>
+      <c r="F75">
+        <v>-0.01839975992260065</v>
+      </c>
+      <c r="G75">
+        <v>-0.07164430334795847</v>
+      </c>
+      <c r="H75">
+        <v>0.1627066385543926</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.126119875152558</v>
+        <v>0.1284985313372777</v>
       </c>
       <c r="C76">
-        <v>0.07833982042860232</v>
+        <v>0.1047911709621107</v>
       </c>
       <c r="D76">
-        <v>0.002768729916782997</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.02394217723103063</v>
+      </c>
+      <c r="E76">
+        <v>-0.1175101622787598</v>
+      </c>
+      <c r="F76">
+        <v>0.01054758694789193</v>
+      </c>
+      <c r="G76">
+        <v>-0.06067433825080738</v>
+      </c>
+      <c r="H76">
+        <v>0.03367270759634686</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.0781607977622608</v>
+        <v>0.06631841602222546</v>
       </c>
       <c r="C77">
-        <v>0.04909528831443255</v>
+        <v>0.07247658210694341</v>
       </c>
       <c r="D77">
-        <v>-0.1279378909637775</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1310766799258398</v>
+      </c>
+      <c r="E77">
+        <v>-0.1147716541615282</v>
+      </c>
+      <c r="F77">
+        <v>-0.2931796412552349</v>
+      </c>
+      <c r="G77">
+        <v>0.09241294165161565</v>
+      </c>
+      <c r="H77">
+        <v>0.1801466006568535</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03922018336734186</v>
+        <v>0.04213338303238026</v>
       </c>
       <c r="C78">
-        <v>0.04641361118943562</v>
+        <v>0.06107751385726642</v>
       </c>
       <c r="D78">
-        <v>-0.1091344959508999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1231165133502962</v>
+      </c>
+      <c r="E78">
+        <v>-0.03222488333581081</v>
+      </c>
+      <c r="F78">
+        <v>0.01802739633375483</v>
+      </c>
+      <c r="G78">
+        <v>-0.03387490819296282</v>
+      </c>
+      <c r="H78">
+        <v>-0.03749073947492696</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.002048269927515721</v>
+        <v>0.04126405892122906</v>
       </c>
       <c r="C79">
-        <v>-0.001806907500925755</v>
+        <v>0.07763347241556513</v>
       </c>
       <c r="D79">
-        <v>-0.01901615416049183</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.03963888822976212</v>
+      </c>
+      <c r="E79">
+        <v>-0.1654342657420533</v>
+      </c>
+      <c r="F79">
+        <v>0.07626637493595305</v>
+      </c>
+      <c r="G79">
+        <v>-0.4867815426035342</v>
+      </c>
+      <c r="H79">
+        <v>0.5654411116856201</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.03443395283790786</v>
+        <v>0.02787771287667451</v>
       </c>
       <c r="C80">
-        <v>0.02584466328997623</v>
+        <v>0.04087037451448551</v>
       </c>
       <c r="D80">
-        <v>-0.0355390312331082</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03726707067747539</v>
+      </c>
+      <c r="E80">
+        <v>-0.01462719907970542</v>
+      </c>
+      <c r="F80">
+        <v>-0.03661372539673491</v>
+      </c>
+      <c r="G80">
+        <v>0.04326418872120719</v>
+      </c>
+      <c r="H80">
+        <v>-0.04392517100809103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1444615589602178</v>
+        <v>0.1339589580572348</v>
       </c>
       <c r="C81">
-        <v>0.08328303350343945</v>
+        <v>0.1109669615368639</v>
       </c>
       <c r="D81">
-        <v>0.03601808511604889</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07499864685069912</v>
+      </c>
+      <c r="E81">
+        <v>-0.1127658565101813</v>
+      </c>
+      <c r="F81">
+        <v>0.002000719393897464</v>
+      </c>
+      <c r="G81">
+        <v>-0.05169987583186043</v>
+      </c>
+      <c r="H81">
+        <v>0.05574793873145125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2846256033139176</v>
+        <v>0.2519939406172125</v>
       </c>
       <c r="C82">
-        <v>0.2253850411691055</v>
+        <v>0.226591525721115</v>
       </c>
       <c r="D82">
-        <v>0.2290970139598504</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2286602988834303</v>
+      </c>
+      <c r="E82">
+        <v>0.001590831896371453</v>
+      </c>
+      <c r="F82">
+        <v>0.0377510779935168</v>
+      </c>
+      <c r="G82">
+        <v>-0.3121437930927147</v>
+      </c>
+      <c r="H82">
+        <v>-0.440253757718009</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03684731362479539</v>
+        <v>0.02475305687643216</v>
       </c>
       <c r="C83">
-        <v>0.03630191301084629</v>
+        <v>0.05253552532746659</v>
       </c>
       <c r="D83">
-        <v>-0.07192451252170286</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05307720517480059</v>
+      </c>
+      <c r="E83">
+        <v>-0.004527522262763844</v>
+      </c>
+      <c r="F83">
+        <v>-0.02036872082291869</v>
+      </c>
+      <c r="G83">
+        <v>-0.001932066025472688</v>
+      </c>
+      <c r="H83">
+        <v>-0.02946315283120466</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0002060758046234572</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.00428279171674084</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.009183760172105584</v>
+      </c>
+      <c r="E84">
+        <v>-0.01045738442515217</v>
+      </c>
+      <c r="F84">
+        <v>0.004528856529560622</v>
+      </c>
+      <c r="G84">
+        <v>0.006626947353025776</v>
+      </c>
+      <c r="H84">
+        <v>-0.005662652390724282</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1859997458964367</v>
+        <v>0.1667720685602281</v>
       </c>
       <c r="C85">
-        <v>0.09326671411485686</v>
+        <v>0.125944150101004</v>
       </c>
       <c r="D85">
-        <v>0.05817156071723525</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.0844491657844335</v>
+      </c>
+      <c r="E85">
+        <v>-0.03871529861501368</v>
+      </c>
+      <c r="F85">
+        <v>0.03569836539075118</v>
+      </c>
+      <c r="G85">
+        <v>-0.0855096555344436</v>
+      </c>
+      <c r="H85">
+        <v>0.1362420834269548</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01236828640201625</v>
+        <v>0.01856993630942094</v>
       </c>
       <c r="C86">
-        <v>0.02072960302785578</v>
+        <v>0.01704506363131417</v>
       </c>
       <c r="D86">
-        <v>-0.1350878678792236</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1201050358545454</v>
+      </c>
+      <c r="E86">
+        <v>-0.02119297206168608</v>
+      </c>
+      <c r="F86">
+        <v>-0.007117567118737577</v>
+      </c>
+      <c r="G86">
+        <v>-0.04209274351209647</v>
+      </c>
+      <c r="H86">
+        <v>-0.06754294929329459</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02673551917858008</v>
+        <v>0.03200606925558365</v>
       </c>
       <c r="C87">
-        <v>-0.0008730558658888243</v>
+        <v>0.02225131267543008</v>
       </c>
       <c r="D87">
-        <v>-0.09608073334454469</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1240283950983167</v>
+      </c>
+      <c r="E87">
+        <v>-0.08954215507759646</v>
+      </c>
+      <c r="F87">
+        <v>-0.02242137709499535</v>
+      </c>
+      <c r="G87">
+        <v>0.001495832512892077</v>
+      </c>
+      <c r="H87">
+        <v>-0.03444951380779156</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.08774948818099193</v>
+        <v>0.07682723817922722</v>
       </c>
       <c r="C88">
-        <v>0.05310334129787794</v>
+        <v>0.06269574746856317</v>
       </c>
       <c r="D88">
-        <v>-0.04713449806134754</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02756449773097563</v>
+      </c>
+      <c r="E88">
+        <v>-0.03558190924197267</v>
+      </c>
+      <c r="F88">
+        <v>0.001167374692358526</v>
+      </c>
+      <c r="G88">
+        <v>0.01244536693411383</v>
+      </c>
+      <c r="H88">
+        <v>-0.01489176369829949</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1975227168721541</v>
+        <v>0.2559080620988255</v>
       </c>
       <c r="C89">
-        <v>-0.3613698764740521</v>
+        <v>-0.3554724853424322</v>
       </c>
       <c r="D89">
-        <v>0.03135964745237263</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.005210078375278007</v>
+      </c>
+      <c r="E89">
+        <v>-0.06265692115329666</v>
+      </c>
+      <c r="F89">
+        <v>-0.04276103426364749</v>
+      </c>
+      <c r="G89">
+        <v>-0.01887624188210301</v>
+      </c>
+      <c r="H89">
+        <v>-0.04733702458682627</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1865508061098414</v>
+        <v>0.2259852718375046</v>
       </c>
       <c r="C90">
-        <v>-0.3068308426307635</v>
+        <v>-0.2731744279181284</v>
       </c>
       <c r="D90">
-        <v>0.03474655668511106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01233805331878688</v>
+      </c>
+      <c r="E90">
+        <v>-0.05191255917732607</v>
+      </c>
+      <c r="F90">
+        <v>0.002409998341199652</v>
+      </c>
+      <c r="G90">
+        <v>0.02958522174859333</v>
+      </c>
+      <c r="H90">
+        <v>-0.05310847483873022</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1846761543114228</v>
+        <v>0.1733246837452436</v>
       </c>
       <c r="C91">
-        <v>0.1398513911150706</v>
+        <v>0.1601279707965151</v>
       </c>
       <c r="D91">
-        <v>0.05202322112270412</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08481451189645933</v>
+      </c>
+      <c r="E91">
+        <v>-0.09759221425570515</v>
+      </c>
+      <c r="F91">
+        <v>0.01812750668717373</v>
+      </c>
+      <c r="G91">
+        <v>-0.06227471077504149</v>
+      </c>
+      <c r="H91">
+        <v>0.1471544860186053</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1570303211532916</v>
+        <v>0.2018262422988795</v>
       </c>
       <c r="C92">
-        <v>-0.2991570157641081</v>
+        <v>-0.2810863378344889</v>
       </c>
       <c r="D92">
-        <v>-0.007746119834709022</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.01505229779723751</v>
+      </c>
+      <c r="E92">
+        <v>-0.08817392780737146</v>
+      </c>
+      <c r="F92">
+        <v>-0.03854893454025022</v>
+      </c>
+      <c r="G92">
+        <v>-0.008518887744629876</v>
+      </c>
+      <c r="H92">
+        <v>-0.03501165386987224</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2153878397251487</v>
+        <v>0.2495963551841902</v>
       </c>
       <c r="C93">
-        <v>-0.3190952014627795</v>
+        <v>-0.2867635923182916</v>
       </c>
       <c r="D93">
-        <v>0.02014894877688765</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.008269962828635754</v>
+      </c>
+      <c r="E93">
+        <v>-0.02639857978630178</v>
+      </c>
+      <c r="F93">
+        <v>0.0323999006850211</v>
+      </c>
+      <c r="G93">
+        <v>-0.01186075159720656</v>
+      </c>
+      <c r="H93">
+        <v>-0.006747785069196287</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3943647098312659</v>
+        <v>0.3437228870730935</v>
       </c>
       <c r="C94">
-        <v>0.2284421242187281</v>
+        <v>0.2433221874663112</v>
       </c>
       <c r="D94">
-        <v>0.4650798037100802</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4440126519401403</v>
+      </c>
+      <c r="E94">
+        <v>-0.1127431491675677</v>
+      </c>
+      <c r="F94">
+        <v>-0.03637371731372822</v>
+      </c>
+      <c r="G94">
+        <v>0.6078649406216052</v>
+      </c>
+      <c r="H94">
+        <v>-0.03298488429102962</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.08817874103059303</v>
+        <v>0.075105590782195</v>
       </c>
       <c r="C95">
-        <v>0.04223489667813516</v>
+        <v>0.05099344873493677</v>
       </c>
       <c r="D95">
-        <v>-0.1024158118478854</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.08557810736610079</v>
+      </c>
+      <c r="E95">
+        <v>0.1079677325236942</v>
+      </c>
+      <c r="F95">
+        <v>-0.9076054024626585</v>
+      </c>
+      <c r="G95">
+        <v>-0.05245806910688904</v>
+      </c>
+      <c r="H95">
+        <v>0.05245848676985383</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1777039523622558</v>
+        <v>0.1699294024455426</v>
       </c>
       <c r="C98">
-        <v>0.02637385408606406</v>
+        <v>0.05374797076496059</v>
       </c>
       <c r="D98">
-        <v>-0.1298536042618492</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1365698790809639</v>
+      </c>
+      <c r="E98">
+        <v>0.2884183041717165</v>
+      </c>
+      <c r="F98">
+        <v>0.08633486845430148</v>
+      </c>
+      <c r="G98">
+        <v>-0.0208311700003375</v>
+      </c>
+      <c r="H98">
+        <v>0.02401696882700498</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.003252893650444908</v>
+        <v>0.00602330975688422</v>
       </c>
       <c r="C101">
-        <v>0.01043188672350263</v>
+        <v>0.01924676883075099</v>
       </c>
       <c r="D101">
-        <v>-0.05941312722119388</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.07636950015750277</v>
+      </c>
+      <c r="E101">
+        <v>-0.05000508658423307</v>
+      </c>
+      <c r="F101">
+        <v>-0.0009728128011196409</v>
+      </c>
+      <c r="G101">
+        <v>-0.03072809494512361</v>
+      </c>
+      <c r="H101">
+        <v>-0.09603890562820887</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1302656721553022</v>
+        <v>0.1169409251095243</v>
       </c>
       <c r="C102">
-        <v>0.106651606642244</v>
+        <v>0.1170968382104128</v>
       </c>
       <c r="D102">
-        <v>0.03003894858891629</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05057865532508478</v>
+      </c>
+      <c r="E102">
+        <v>-0.02918498621888047</v>
+      </c>
+      <c r="F102">
+        <v>-0.02031348301521862</v>
+      </c>
+      <c r="G102">
+        <v>-0.05260916404078604</v>
+      </c>
+      <c r="H102">
+        <v>0.003171551882859355</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
